--- a/master/master2.xlsx
+++ b/master/master2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NNIT\PCO\pybranch\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551599FB-4CC0-4376-8C88-765EDFB136B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDEDB0C-FCB7-400C-A2AC-49824126D942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C56A211-98D0-4380-A6F3-3F2A4B09B277}"/>
   </bookViews>
@@ -31,9 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>master2 xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new update waiting for branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889668D5-9C9A-4C4E-9041-3952FB2D7F8C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -409,6 +413,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master/master2.xlsx
+++ b/master/master2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NNIT\PCO\pybranch\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDEDB0C-FCB7-400C-A2AC-49824126D942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E057D-A6C4-468A-B008-EFA17647275E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C56A211-98D0-4380-A6F3-3F2A4B09B277}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>master2 xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889668D5-9C9A-4C4E-9041-3952FB2D7F8C}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -418,6 +418,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
